--- a/data/raw/variable-availability.xlsx
+++ b/data/raw/variable-availability.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andkov\Documents\GitHub\ialsa-2016-amsterdam\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koval_000\Documents\GitHub\ialsa-2016-amsterdam\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="8865"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="17100" windowHeight="8868"/>
   </bookViews>
   <sheets>
     <sheet name="variable-availability" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>HRS</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>https://www.maelstrom-research.org/mica/search#!type=studies&amp;query=%7B%22studies%22%3A%7B%22terms%22%3A%7B%22studyIds%22%3A%7B%22values%22%3A%5B%22lasa%22%2C%22obas%22%2C%22octo-twin%22%2C%22midus%22%5D%2C%22op%22%3A%22and%22%7D%7D%7D%2C%22variables%22%3A%7B%22matches%22%3A%22dementia%22%7D%7D&amp;with-facets=false</t>
+  </si>
+  <si>
+    <t>tics</t>
   </si>
 </sst>
 </file>
@@ -118,18 +121,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,20 +140,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -429,74 +515,75 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -505,91 +592,127 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -599,6 +722,14 @@
   <sortState ref="H4:H10">
     <sortCondition ref="H4"/>
   </sortState>
+  <conditionalFormatting sqref="A1:H1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
